--- a/minutas reu Seguimiento/compromisos - copia.xlsx
+++ b/minutas reu Seguimiento/compromisos - copia.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="251">
   <si>
     <t>Status</t>
   </si>
@@ -801,6 +801,18 @@
   </si>
   <si>
     <t>cambia de fecha compromiso</t>
+  </si>
+  <si>
+    <t>Revisar costos Colbún  con Rodrigo, Jaime o Andrés</t>
+  </si>
+  <si>
+    <t>Enviar a YM correo informativo con el problema del browser y como solucionarlo</t>
+  </si>
+  <si>
+    <t>Revisar ETL para carga de perfiles de Komatsu, no debe cargar personas.</t>
+  </si>
+  <si>
+    <t>Pasar a producción Colbún si la sociedad contratante aparece en campo UO.</t>
   </si>
 </sst>
 </file>
@@ -908,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1009,11 +1021,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1133,6 +1156,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1686,10 +1721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F149" sqref="A1:F149"/>
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1776,7 @@
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +1794,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1812,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1830,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -1815,7 +1850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1868,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1851,7 +1886,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1924,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +1964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +1984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +2002,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1987,7 +2022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2005,7 +2040,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2045,7 +2080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2098,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>202</v>
       </c>
@@ -2083,7 +2118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
@@ -2103,7 +2138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>203</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2196,7 @@
       </c>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>50</v>
       </c>
@@ -2199,7 +2234,7 @@
       </c>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>64</v>
       </c>
@@ -2219,7 +2254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>51</v>
       </c>
@@ -2239,7 +2274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>205</v>
       </c>
@@ -2257,7 +2292,7 @@
       </c>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>55</v>
       </c>
@@ -2275,7 +2310,7 @@
       </c>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
@@ -2293,7 +2328,7 @@
       </c>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>63</v>
       </c>
@@ -2311,7 +2346,7 @@
       </c>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>57</v>
       </c>
@@ -2331,7 +2366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>58</v>
       </c>
@@ -2349,7 +2384,7 @@
       </c>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>62</v>
       </c>
@@ -2369,7 +2404,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>59</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>68</v>
       </c>
@@ -2409,7 +2444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>69</v>
       </c>
@@ -2427,7 +2462,7 @@
       </c>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>70</v>
       </c>
@@ -2445,7 +2480,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>207</v>
       </c>
@@ -2463,7 +2498,7 @@
       </c>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>71</v>
       </c>
@@ -2483,7 +2518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>72</v>
       </c>
@@ -2499,7 +2534,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>73</v>
       </c>
@@ -2515,7 +2550,7 @@
       </c>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>76</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>77</v>
       </c>
@@ -2553,7 +2588,7 @@
       </c>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>79</v>
       </c>
@@ -2571,7 +2606,7 @@
       </c>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>82</v>
       </c>
@@ -2589,7 +2624,7 @@
       </c>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
@@ -2609,7 +2644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>88</v>
       </c>
@@ -2627,7 +2662,7 @@
       </c>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>86</v>
       </c>
@@ -2647,7 +2682,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>85</v>
       </c>
@@ -2665,7 +2700,7 @@
       </c>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>209</v>
       </c>
@@ -2683,7 +2718,7 @@
       </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>210</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>89</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>90</v>
       </c>
@@ -2739,7 +2774,7 @@
       </c>
       <c r="F55" s="14"/>
     </row>
-    <row r="56" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2790,7 @@
       </c>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>93</v>
       </c>
@@ -2771,7 +2806,7 @@
       </c>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>94</v>
       </c>
@@ -2789,7 +2824,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>98</v>
       </c>
@@ -2807,7 +2842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>99</v>
       </c>
@@ -2841,7 +2876,7 @@
       </c>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>100</v>
       </c>
@@ -2857,7 +2892,7 @@
       </c>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>101</v>
       </c>
@@ -2873,7 +2908,7 @@
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>102</v>
       </c>
@@ -2889,7 +2924,7 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>103</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>104</v>
       </c>
@@ -2923,7 +2958,7 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>105</v>
       </c>
@@ -2939,7 +2974,7 @@
       </c>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>213</v>
       </c>
@@ -2955,7 +2990,7 @@
       </c>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>106</v>
       </c>
@@ -2971,7 +3006,7 @@
       </c>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>214</v>
       </c>
@@ -2987,7 +3022,7 @@
       </c>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>108</v>
       </c>
@@ -3003,7 +3038,7 @@
       </c>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>109</v>
       </c>
@@ -3019,7 +3054,7 @@
       </c>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>110</v>
       </c>
@@ -3035,7 +3070,7 @@
       </c>
       <c r="F73" s="14"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>155</v>
       </c>
@@ -3051,7 +3086,7 @@
       </c>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>111</v>
       </c>
@@ -3067,7 +3102,7 @@
       </c>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>112</v>
       </c>
@@ -3083,7 +3118,7 @@
       </c>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>113</v>
       </c>
@@ -3101,7 +3136,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>114</v>
       </c>
@@ -3117,7 +3152,7 @@
       </c>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>154</v>
       </c>
@@ -3133,7 +3168,7 @@
       </c>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>115</v>
       </c>
@@ -3151,7 +3186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>153</v>
       </c>
@@ -3169,7 +3204,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>160</v>
       </c>
@@ -3185,7 +3220,7 @@
       </c>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>159</v>
       </c>
@@ -3201,7 +3236,7 @@
       </c>
       <c r="F83" s="19"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>156</v>
       </c>
@@ -3219,7 +3254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>157</v>
       </c>
@@ -3235,7 +3270,7 @@
       </c>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>161</v>
       </c>
@@ -3253,7 +3288,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>216</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>162</v>
       </c>
@@ -3287,7 +3322,7 @@
       </c>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>163</v>
       </c>
@@ -3303,7 +3338,7 @@
       </c>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>171</v>
       </c>
@@ -3319,7 +3354,7 @@
       </c>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>165</v>
       </c>
@@ -3335,7 +3370,7 @@
       </c>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>166</v>
       </c>
@@ -3351,7 +3386,7 @@
       </c>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>167</v>
       </c>
@@ -3367,7 +3402,7 @@
       </c>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>168</v>
       </c>
@@ -3383,7 +3418,7 @@
       </c>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>169</v>
       </c>
@@ -3399,7 +3434,7 @@
       </c>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>170</v>
       </c>
@@ -3417,7 +3452,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>173</v>
       </c>
@@ -3433,7 +3468,7 @@
       </c>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>218</v>
       </c>
@@ -3449,7 +3484,7 @@
       </c>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>174</v>
       </c>
@@ -3465,7 +3500,7 @@
       </c>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>175</v>
       </c>
@@ -3481,7 +3516,7 @@
       </c>
       <c r="F100" s="14"/>
     </row>
-    <row r="101" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>176</v>
       </c>
@@ -3497,7 +3532,7 @@
       </c>
       <c r="F101" s="14"/>
     </row>
-    <row r="102" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>177</v>
       </c>
@@ -3513,7 +3548,7 @@
       </c>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>180</v>
       </c>
@@ -3529,7 +3564,7 @@
       </c>
       <c r="F103" s="14"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>178</v>
       </c>
@@ -3545,7 +3580,7 @@
       </c>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>179</v>
       </c>
@@ -3561,7 +3596,7 @@
       </c>
       <c r="F105" s="14"/>
     </row>
-    <row r="106" spans="1:6" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
         <v>181</v>
       </c>
@@ -3577,7 +3612,7 @@
       </c>
       <c r="F106" s="14"/>
     </row>
-    <row r="107" spans="1:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
         <v>219</v>
       </c>
@@ -3605,7 +3640,7 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="F108" s="14"/>
     </row>
@@ -4178,20 +4213,20 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="41" t="s">
+      <c r="A144" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="39" t="s">
+      <c r="B144" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C144" s="40">
+      <c r="C144" s="44">
         <v>42604</v>
       </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="41"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="42"/>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
@@ -4212,22 +4247,22 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B146" s="39" t="s">
+      <c r="B146" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C146" s="40">
+      <c r="C146" s="44">
         <v>42604</v>
       </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="41"/>
-    </row>
-    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D146" s="43"/>
+      <c r="E146" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="42"/>
+    </row>
+    <row r="147" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>242</v>
       </c>
@@ -4243,7 +4278,7 @@
       </c>
       <c r="F147" s="14"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>243</v>
       </c>
@@ -4261,28 +4296,92 @@
       </c>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+    <row r="149" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="40">
         <v>42611</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="40">
         <v>42614</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="14" t="s">
+      <c r="E149" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="41" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B150" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="16">
+        <v>42618</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="14"/>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B151" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="16">
+        <v>42618</v>
+      </c>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F151" s="14"/>
+    </row>
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C152" s="16">
+        <v>42618</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="14"/>
+    </row>
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="16">
+        <v>42618</v>
+      </c>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E146">
+  <autoFilter ref="A1:E149">
     <filterColumn colId="4">
       <filters>
         <filter val="Nok"/>
